--- a/cadasta/organization/tests/files/test_conditionals.xlsx
+++ b/cadasta/organization/tests/files/test_conditionals.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="locations" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="parties" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="relationships" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="locations" sheetId="1" r:id="rId4"/>
+    <sheet name="parties" sheetId="2" r:id="rId5"/>
+    <sheet name="relationships" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +102,10 @@
     <t>spatial_unit_id</t>
   </si>
   <si>
-    <t>tenure_type.id</t>
-  </si>
-  <si>
-    <t>tenure_type.label</t>
+    <t>tenure_type</t>
+  </si>
+  <si>
+    <t>tenure_type_label</t>
   </si>
   <si>
     <t>notes</t>
@@ -137,352 +133,1594 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="A7A7A7"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="535353"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4372469635628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.53441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6882591093117"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.53441295546559"/>
+    <col min="1" max="1" width="28.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s" s="2">
         <v>10</v>
       </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3724696356275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.53441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5465587044534"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1619433198381"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.53441295546559"/>
+    <col min="1" max="1" width="27.3516" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.8516" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.6719" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.1719" style="4" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="5">
         <v>20</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s" s="2">
         <v>26</v>
       </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3724696356275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6234817813765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.53441295546559"/>
+    <col min="1" max="1" width="27.3516" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.6719" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="7" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s" s="2">
         <v>37</v>
       </c>
     </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/cadasta/organization/tests/files/test_conditionals.xlsx
+++ b/cadasta/organization/tests/files/test_conditionals.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -105,25 +105,16 @@
     <t>tenure_type</t>
   </si>
   <si>
-    <t>tenure_type_label</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
     <t>CU</t>
   </si>
   <si>
-    <t>Customary Rights</t>
-  </si>
-  <si>
     <t>Some notes</t>
   </si>
   <si>
     <t>WR</t>
-  </si>
-  <si>
-    <t>Water Rights</t>
   </si>
   <si>
     <t>Some more notes</t>
@@ -206,7 +197,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -377,13 +368,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -482,10 +467,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -740,13 +725,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1059,10 +1038,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1602,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1611,9 +1590,8 @@
     <col min="1" max="1" width="27.3516" style="7" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="19.6719" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="7" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="7" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1629,9 +1607,6 @@
       <c r="D1" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="E1" t="s" s="2">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -1641,13 +1616,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -1658,13 +1630,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -1672,49 +1641,42 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
